--- a/natmiOut/OldD2/LR-pairs_lrc2p/F13a1-Itga4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/F13a1-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -85,19 +88,16 @@
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>F13a1</t>
   </si>
   <si>
     <t>Itga4</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Neutro</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.112992866267799</v>
+        <v>0.2253675</v>
       </c>
       <c r="H2">
-        <v>0.112992866267799</v>
+        <v>0.450735</v>
       </c>
       <c r="I2">
-        <v>0.0004701916967448585</v>
+        <v>0.0008255714740055148</v>
       </c>
       <c r="J2">
-        <v>0.0004701916967448585</v>
+        <v>0.000550551464194694</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.294352522144792</v>
+        <v>0.317263</v>
       </c>
       <c r="N2">
-        <v>0.294352522144792</v>
+        <v>0.634526</v>
       </c>
       <c r="O2">
-        <v>0.002545680356091186</v>
+        <v>0.002587741009497455</v>
       </c>
       <c r="P2">
-        <v>0.002545680356091186</v>
+        <v>0.001733186563985812</v>
       </c>
       <c r="Q2">
-        <v>0.03325973517029583</v>
+        <v>0.0715007691525</v>
       </c>
       <c r="R2">
-        <v>0.03325973517029583</v>
+        <v>0.28600307661</v>
       </c>
       <c r="S2">
-        <v>1.19695776600057E-06</v>
+        <v>2.136365159555333E-06</v>
       </c>
       <c r="T2">
-        <v>1.19695776600057E-06</v>
+        <v>9.542084005249598E-07</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,49 +602,49 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.112992866267799</v>
+        <v>0.2253675</v>
       </c>
       <c r="H3">
-        <v>0.112992866267799</v>
+        <v>0.450735</v>
       </c>
       <c r="I3">
-        <v>0.0004701916967448585</v>
+        <v>0.0008255714740055148</v>
       </c>
       <c r="J3">
-        <v>0.0004701916967448585</v>
+        <v>0.000550551464194694</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>42.976043056057</v>
+        <v>0.02842633333333333</v>
       </c>
       <c r="N3">
-        <v>42.976043056057</v>
+        <v>0.08527899999999999</v>
       </c>
       <c r="O3">
-        <v>0.3716743032917443</v>
+        <v>0.0002318580752130288</v>
       </c>
       <c r="P3">
-        <v>0.3716743032917443</v>
+        <v>0.0002329367385893503</v>
       </c>
       <c r="Q3">
-        <v>4.855986285752221</v>
+        <v>0.0064063716775</v>
       </c>
       <c r="R3">
-        <v>4.855986285752221</v>
+        <v>0.038438230065</v>
       </c>
       <c r="S3">
-        <v>0.0001747581713012084</v>
+        <v>1.914154129137017E-07</v>
       </c>
       <c r="T3">
-        <v>0.0001747581713012084</v>
+        <v>1.282436624951035E-07</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,49 +664,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.112992866267799</v>
+        <v>0.2253675</v>
       </c>
       <c r="H4">
-        <v>0.112992866267799</v>
+        <v>0.450735</v>
       </c>
       <c r="I4">
-        <v>0.0004701916967448585</v>
+        <v>0.0008255714740055148</v>
       </c>
       <c r="J4">
-        <v>0.0004701916967448585</v>
+        <v>0.000550551464194694</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>70.4144540386251</v>
+        <v>49.39115366666666</v>
       </c>
       <c r="N4">
-        <v>70.4144540386251</v>
+        <v>148.173461</v>
       </c>
       <c r="O4">
-        <v>0.6089728435988707</v>
+        <v>0.4028566641859401</v>
       </c>
       <c r="P4">
-        <v>0.6089728435988707</v>
+        <v>0.4047308569616938</v>
       </c>
       <c r="Q4">
-        <v>7.956330988506445</v>
+        <v>11.1311608239725</v>
       </c>
       <c r="R4">
-        <v>7.956330988506445</v>
+        <v>66.78696494383499</v>
       </c>
       <c r="S4">
-        <v>0.0002863339746032943</v>
+        <v>0.0003325869700649312</v>
       </c>
       <c r="T4">
-        <v>0.0002863339746032943</v>
+        <v>0.0002228251659050338</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.112992866267799</v>
+        <v>0.2253675</v>
       </c>
       <c r="H5">
-        <v>0.112992866267799</v>
+        <v>0.450735</v>
       </c>
       <c r="I5">
-        <v>0.0004701916967448585</v>
+        <v>0.0008255714740055148</v>
       </c>
       <c r="J5">
-        <v>0.0004701916967448585</v>
+        <v>0.000550551464194694</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.570626390767208</v>
+        <v>70.86573300000001</v>
       </c>
       <c r="N5">
-        <v>0.570626390767208</v>
+        <v>212.597199</v>
       </c>
       <c r="O5">
-        <v>0.004935009162003186</v>
+        <v>0.5780130789036135</v>
       </c>
       <c r="P5">
-        <v>0.004935009162003186</v>
+        <v>0.5807021443531359</v>
       </c>
       <c r="Q5">
-        <v>0.06447671146083594</v>
+        <v>15.9708330818775</v>
       </c>
       <c r="R5">
-        <v>0.06447671146083594</v>
+        <v>95.82499849126501</v>
       </c>
       <c r="S5">
-        <v>2.3204003313337E-06</v>
+        <v>0.0004771911095449222</v>
       </c>
       <c r="T5">
-        <v>2.3204003313337E-06</v>
+        <v>0.0003197064158346176</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,72 +776,72 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.112992866267799</v>
+        <v>0.2253675</v>
       </c>
       <c r="H6">
-        <v>0.112992866267799</v>
+        <v>0.450735</v>
       </c>
       <c r="I6">
-        <v>0.0004701916967448585</v>
+        <v>0.0008255714740055148</v>
       </c>
       <c r="J6">
-        <v>0.0004701916967448585</v>
+        <v>0.000550551464194694</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.3727573016189</v>
+        <v>0.6137786666666667</v>
       </c>
       <c r="N6">
-        <v>1.3727573016189</v>
+        <v>1.841336</v>
       </c>
       <c r="O6">
-        <v>0.01187216359129066</v>
+        <v>0.005006257352694774</v>
       </c>
       <c r="P6">
-        <v>0.01187216359129066</v>
+        <v>0.005029547749002215</v>
       </c>
       <c r="Q6">
-        <v>0.155111782199969</v>
+        <v>0.13832576366</v>
       </c>
       <c r="R6">
-        <v>0.155111782199969</v>
+        <v>0.82995458196</v>
       </c>
       <c r="S6">
-        <v>5.582192743021487E-06</v>
+        <v>4.13302326191517E-06</v>
       </c>
       <c r="T6">
-        <v>5.582192743021487E-06</v>
+        <v>2.769024877450297E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
@@ -850,49 +850,49 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>150.219349322044</v>
+        <v>0.2253675</v>
       </c>
       <c r="H7">
-        <v>150.219349322044</v>
+        <v>0.450735</v>
       </c>
       <c r="I7">
-        <v>0.625100442838924</v>
+        <v>0.0008255714740055148</v>
       </c>
       <c r="J7">
-        <v>0.625100442838924</v>
+        <v>0.000550551464194694</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.294352522144792</v>
+        <v>1.3859455</v>
       </c>
       <c r="N7">
-        <v>0.294352522144792</v>
+        <v>2.771891</v>
       </c>
       <c r="O7">
-        <v>0.002545680356091186</v>
+        <v>0.01130440047304115</v>
       </c>
       <c r="P7">
-        <v>0.002545680356091186</v>
+        <v>0.007571327633592945</v>
       </c>
       <c r="Q7">
-        <v>44.21744434789321</v>
+        <v>0.31234707247125</v>
       </c>
       <c r="R7">
-        <v>44.21744434789321</v>
+        <v>1.249388289885</v>
       </c>
       <c r="S7">
-        <v>0.00159130591791895</v>
+        <v>9.332590561277223E-06</v>
       </c>
       <c r="T7">
-        <v>0.00159130591791895</v>
+        <v>4.168405514572344E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>150.219349322044</v>
+        <v>0.1252076666666667</v>
       </c>
       <c r="H8">
-        <v>150.219349322044</v>
+        <v>0.375623</v>
       </c>
       <c r="I8">
-        <v>0.625100442838924</v>
+        <v>0.0004586636401734551</v>
       </c>
       <c r="J8">
-        <v>0.625100442838924</v>
+        <v>0.0004588057120818298</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>42.976043056057</v>
+        <v>0.317263</v>
       </c>
       <c r="N8">
-        <v>42.976043056057</v>
+        <v>0.634526</v>
       </c>
       <c r="O8">
-        <v>0.3716743032917443</v>
+        <v>0.002587741009497455</v>
       </c>
       <c r="P8">
-        <v>0.3716743032917443</v>
+        <v>0.001733186563985812</v>
       </c>
       <c r="Q8">
-        <v>6455.83322431703</v>
+        <v>0.03972375994966667</v>
       </c>
       <c r="R8">
-        <v>6455.83322431703</v>
+        <v>0.238342559698</v>
       </c>
       <c r="S8">
-        <v>0.2323337715795179</v>
+        <v>1.186902711242234E-06</v>
       </c>
       <c r="T8">
-        <v>0.2323337715795179</v>
+        <v>7.951958956601704E-07</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>150.219349322044</v>
+        <v>0.1252076666666667</v>
       </c>
       <c r="H9">
-        <v>150.219349322044</v>
+        <v>0.375623</v>
       </c>
       <c r="I9">
-        <v>0.625100442838924</v>
+        <v>0.0004586636401734551</v>
       </c>
       <c r="J9">
-        <v>0.625100442838924</v>
+        <v>0.0004588057120818298</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>70.4144540386251</v>
+        <v>0.02842633333333333</v>
       </c>
       <c r="N9">
-        <v>70.4144540386251</v>
+        <v>0.08527899999999999</v>
       </c>
       <c r="O9">
-        <v>0.6089728435988707</v>
+        <v>0.0002318580752130288</v>
       </c>
       <c r="P9">
-        <v>0.6089728435988707</v>
+        <v>0.0002329367385893503</v>
       </c>
       <c r="Q9">
-        <v>10577.61346854923</v>
+        <v>0.003559194868555555</v>
       </c>
       <c r="R9">
-        <v>10577.61346854923</v>
+        <v>0.032032753817</v>
       </c>
       <c r="S9">
-        <v>0.3806691942105329</v>
+        <v>1.063448687808185E-07</v>
       </c>
       <c r="T9">
-        <v>0.3806691942105329</v>
+        <v>1.068727062185059E-07</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>150.219349322044</v>
+        <v>0.1252076666666667</v>
       </c>
       <c r="H10">
-        <v>150.219349322044</v>
+        <v>0.375623</v>
       </c>
       <c r="I10">
-        <v>0.625100442838924</v>
+        <v>0.0004586636401734551</v>
       </c>
       <c r="J10">
-        <v>0.625100442838924</v>
+        <v>0.0004588057120818298</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.570626390767208</v>
+        <v>49.39115366666666</v>
       </c>
       <c r="N10">
-        <v>0.570626390767208</v>
+        <v>148.173461</v>
       </c>
       <c r="O10">
-        <v>0.004935009162003186</v>
+        <v>0.4028566641859401</v>
       </c>
       <c r="P10">
-        <v>0.004935009162003186</v>
+        <v>0.4047308569616938</v>
       </c>
       <c r="Q10">
-        <v>85.71912512703641</v>
+        <v>6.18415110457811</v>
       </c>
       <c r="R10">
-        <v>85.71912512703641</v>
+        <v>55.65735994120299</v>
       </c>
       <c r="S10">
-        <v>0.003084876412582338</v>
+        <v>0.0001847757040636585</v>
       </c>
       <c r="T10">
-        <v>0.003084876412582338</v>
+        <v>0.0001856928290297991</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>150.219349322044</v>
+        <v>0.1252076666666667</v>
       </c>
       <c r="H11">
-        <v>150.219349322044</v>
+        <v>0.375623</v>
       </c>
       <c r="I11">
-        <v>0.625100442838924</v>
+        <v>0.0004586636401734551</v>
       </c>
       <c r="J11">
-        <v>0.625100442838924</v>
+        <v>0.0004588057120818298</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.3727573016189</v>
+        <v>70.86573300000001</v>
       </c>
       <c r="N11">
-        <v>1.3727573016189</v>
+        <v>212.597199</v>
       </c>
       <c r="O11">
-        <v>0.01187216359129066</v>
+        <v>0.5780130789036135</v>
       </c>
       <c r="P11">
-        <v>0.01187216359129066</v>
+        <v>0.5807021443531359</v>
       </c>
       <c r="Q11">
-        <v>206.2147086262761</v>
+        <v>8.872933075553</v>
       </c>
       <c r="R11">
-        <v>206.2147086262761</v>
+        <v>79.85639767997701</v>
       </c>
       <c r="S11">
-        <v>0.007421294718371939</v>
+        <v>0.0002651135828377979</v>
       </c>
       <c r="T11">
-        <v>0.007421294718371939</v>
+        <v>0.000266429460847386</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>89.9799964813195</v>
+        <v>0.1252076666666667</v>
       </c>
       <c r="H12">
-        <v>89.9799964813195</v>
+        <v>0.375623</v>
       </c>
       <c r="I12">
-        <v>0.3744293654643312</v>
+        <v>0.0004586636401734551</v>
       </c>
       <c r="J12">
-        <v>0.3744293654643312</v>
+        <v>0.0004588057120818298</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.294352522144792</v>
+        <v>0.6137786666666667</v>
       </c>
       <c r="N12">
-        <v>0.294352522144792</v>
+        <v>1.841336</v>
       </c>
       <c r="O12">
-        <v>0.002545680356091186</v>
+        <v>0.005006257352694774</v>
       </c>
       <c r="P12">
-        <v>0.002545680356091186</v>
+        <v>0.005029547749002215</v>
       </c>
       <c r="Q12">
-        <v>26.48583890685591</v>
+        <v>0.07684979470311111</v>
       </c>
       <c r="R12">
-        <v>26.48583890685591</v>
+        <v>0.691648152328</v>
       </c>
       <c r="S12">
-        <v>0.0009531774804062354</v>
+        <v>2.29618822103211E-06</v>
       </c>
       <c r="T12">
-        <v>0.0009531774804062354</v>
+        <v>2.307585236430525E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>89.9799964813195</v>
+        <v>0.1252076666666667</v>
       </c>
       <c r="H13">
-        <v>89.9799964813195</v>
+        <v>0.375623</v>
       </c>
       <c r="I13">
-        <v>0.3744293654643312</v>
+        <v>0.0004586636401734551</v>
       </c>
       <c r="J13">
-        <v>0.3744293654643312</v>
+        <v>0.0004588057120818298</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>42.976043056057</v>
+        <v>1.3859455</v>
       </c>
       <c r="N13">
-        <v>42.976043056057</v>
+        <v>2.771891</v>
       </c>
       <c r="O13">
-        <v>0.3716743032917443</v>
+        <v>0.01130440047304115</v>
       </c>
       <c r="P13">
-        <v>0.3716743032917443</v>
+        <v>0.007571327633592945</v>
       </c>
       <c r="Q13">
-        <v>3866.984202965044</v>
+        <v>0.1735310021821667</v>
       </c>
       <c r="R13">
-        <v>3866.984202965044</v>
+        <v>1.041186013093</v>
       </c>
       <c r="S13">
-        <v>0.1391657735409252</v>
+        <v>5.184917470943583E-06</v>
       </c>
       <c r="T13">
-        <v>0.1391657735409252</v>
+        <v>3.473768366335446E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>89.9799964813195</v>
+        <v>177.1833293333333</v>
       </c>
       <c r="H14">
-        <v>89.9799964813195</v>
+        <v>531.549988</v>
       </c>
       <c r="I14">
-        <v>0.3744293654643312</v>
+        <v>0.6490620979818499</v>
       </c>
       <c r="J14">
-        <v>0.3744293654643312</v>
+        <v>0.6492631461636483</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>70.4144540386251</v>
+        <v>0.317263</v>
       </c>
       <c r="N14">
-        <v>70.4144540386251</v>
+        <v>0.634526</v>
       </c>
       <c r="O14">
-        <v>0.6089728435988707</v>
+        <v>0.002587741009497455</v>
       </c>
       <c r="P14">
-        <v>0.6089728435988707</v>
+        <v>0.001733186563985812</v>
       </c>
       <c r="Q14">
-        <v>6335.89232662952</v>
+        <v>56.21371461428133</v>
       </c>
       <c r="R14">
-        <v>6335.89232662952</v>
+        <v>337.282287685688</v>
       </c>
       <c r="S14">
-        <v>0.2280173154137346</v>
+        <v>0.001679604608658088</v>
       </c>
       <c r="T14">
-        <v>0.2280173154137346</v>
+        <v>0.001125294161421992</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>89.9799964813195</v>
+        <v>177.1833293333333</v>
       </c>
       <c r="H15">
-        <v>89.9799964813195</v>
+        <v>531.549988</v>
       </c>
       <c r="I15">
-        <v>0.3744293654643312</v>
+        <v>0.6490620979818499</v>
       </c>
       <c r="J15">
-        <v>0.3744293654643312</v>
+        <v>0.6492631461636483</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.570626390767208</v>
+        <v>0.02842633333333333</v>
       </c>
       <c r="N15">
-        <v>0.570626390767208</v>
+        <v>0.08527899999999999</v>
       </c>
       <c r="O15">
-        <v>0.004935009162003186</v>
+        <v>0.0002318580752130288</v>
       </c>
       <c r="P15">
-        <v>0.004935009162003186</v>
+        <v>0.0002329367385893503</v>
       </c>
       <c r="Q15">
-        <v>51.34496063338143</v>
+        <v>5.036672380739111</v>
       </c>
       <c r="R15">
-        <v>51.34496063338143</v>
+        <v>45.330051426652</v>
       </c>
       <c r="S15">
-        <v>0.001847812349089514</v>
+        <v>0.000150490288731802</v>
       </c>
       <c r="T15">
-        <v>0.001847812349089514</v>
+        <v>0.0001512372397536209</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,1363 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>177.1833293333333</v>
+      </c>
+      <c r="H16">
+        <v>531.549988</v>
+      </c>
+      <c r="I16">
+        <v>0.6490620979818499</v>
+      </c>
+      <c r="J16">
+        <v>0.6492631461636483</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>49.39115366666666</v>
+      </c>
+      <c r="N16">
+        <v>148.173461</v>
+      </c>
+      <c r="O16">
+        <v>0.4028566641859401</v>
+      </c>
+      <c r="P16">
+        <v>0.4047308569616938</v>
+      </c>
+      <c r="Q16">
+        <v>8751.289046274273</v>
+      </c>
+      <c r="R16">
+        <v>78761.60141646845</v>
+      </c>
+      <c r="S16">
+        <v>0.2614789916424958</v>
+      </c>
+      <c r="T16">
+        <v>0.2627768295404588</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>177.1833293333333</v>
+      </c>
+      <c r="H17">
+        <v>531.549988</v>
+      </c>
+      <c r="I17">
+        <v>0.6490620979818499</v>
+      </c>
+      <c r="J17">
+        <v>0.6492631461636483</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>70.86573300000001</v>
+      </c>
+      <c r="N17">
+        <v>212.597199</v>
+      </c>
+      <c r="O17">
+        <v>0.5780130789036135</v>
+      </c>
+      <c r="P17">
+        <v>0.5807021443531359</v>
+      </c>
+      <c r="Q17">
+        <v>12556.22650858707</v>
+      </c>
+      <c r="R17">
+        <v>113006.0385772836</v>
+      </c>
+      <c r="S17">
+        <v>0.3751663816541279</v>
+      </c>
+      <c r="T17">
+        <v>0.3770285012266941</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>89.9799964813195</v>
-      </c>
-      <c r="H16">
-        <v>89.9799964813195</v>
-      </c>
-      <c r="I16">
-        <v>0.3744293654643312</v>
-      </c>
-      <c r="J16">
-        <v>0.3744293654643312</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1.3727573016189</v>
-      </c>
-      <c r="N16">
-        <v>1.3727573016189</v>
-      </c>
-      <c r="O16">
-        <v>0.01187216359129066</v>
-      </c>
-      <c r="P16">
-        <v>0.01187216359129066</v>
-      </c>
-      <c r="Q16">
-        <v>123.5206971693743</v>
-      </c>
-      <c r="R16">
-        <v>123.5206971693743</v>
-      </c>
-      <c r="S16">
-        <v>0.004445286680175696</v>
-      </c>
-      <c r="T16">
-        <v>0.004445286680175696</v>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>177.1833293333333</v>
+      </c>
+      <c r="H18">
+        <v>531.549988</v>
+      </c>
+      <c r="I18">
+        <v>0.6490620979818499</v>
+      </c>
+      <c r="J18">
+        <v>0.6492631461636483</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.6137786666666667</v>
+      </c>
+      <c r="N18">
+        <v>1.841336</v>
+      </c>
+      <c r="O18">
+        <v>0.005006257352694774</v>
+      </c>
+      <c r="P18">
+        <v>0.005029547749002215</v>
+      </c>
+      <c r="Q18">
+        <v>108.7513476337742</v>
+      </c>
+      <c r="R18">
+        <v>978.762128703968</v>
+      </c>
+      <c r="S18">
+        <v>0.003249371900377131</v>
+      </c>
+      <c r="T18">
+        <v>0.003265499995297474</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>177.1833293333333</v>
+      </c>
+      <c r="H19">
+        <v>531.549988</v>
+      </c>
+      <c r="I19">
+        <v>0.6490620979818499</v>
+      </c>
+      <c r="J19">
+        <v>0.6492631461636483</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.3859455</v>
+      </c>
+      <c r="N19">
+        <v>2.771891</v>
+      </c>
+      <c r="O19">
+        <v>0.01130440047304115</v>
+      </c>
+      <c r="P19">
+        <v>0.007571327633592945</v>
+      </c>
+      <c r="Q19">
+        <v>245.5664379645513</v>
+      </c>
+      <c r="R19">
+        <v>1473.398627787308</v>
+      </c>
+      <c r="S19">
+        <v>0.007337257887459107</v>
+      </c>
+      <c r="T19">
+        <v>0.004915784000022325</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>94.93248999999999</v>
+      </c>
+      <c r="H20">
+        <v>284.79747</v>
+      </c>
+      <c r="I20">
+        <v>0.347758908007205</v>
+      </c>
+      <c r="J20">
+        <v>0.3478666269702695</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.317263</v>
+      </c>
+      <c r="N20">
+        <v>0.634526</v>
+      </c>
+      <c r="O20">
+        <v>0.002587741009497455</v>
+      </c>
+      <c r="P20">
+        <v>0.001733186563985812</v>
+      </c>
+      <c r="Q20">
+        <v>30.11856657487</v>
+      </c>
+      <c r="R20">
+        <v>180.71139944922</v>
+      </c>
+      <c r="S20">
+        <v>0.0008999099876682974</v>
+      </c>
+      <c r="T20">
+        <v>0.0006029177639239357</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>94.93248999999999</v>
+      </c>
+      <c r="H21">
+        <v>284.79747</v>
+      </c>
+      <c r="I21">
+        <v>0.347758908007205</v>
+      </c>
+      <c r="J21">
+        <v>0.3478666269702695</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.02842633333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.08527899999999999</v>
+      </c>
+      <c r="O21">
+        <v>0.0002318580752130288</v>
+      </c>
+      <c r="P21">
+        <v>0.0002329367385893503</v>
+      </c>
+      <c r="Q21">
+        <v>2.698582604903333</v>
+      </c>
+      <c r="R21">
+        <v>24.28724344413</v>
+      </c>
+      <c r="S21">
+        <v>8.06307110487353E-05</v>
+      </c>
+      <c r="T21">
+        <v>8.103091755053268E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>94.93248999999999</v>
+      </c>
+      <c r="H22">
+        <v>284.79747</v>
+      </c>
+      <c r="I22">
+        <v>0.347758908007205</v>
+      </c>
+      <c r="J22">
+        <v>0.3478666269702695</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>49.39115366666666</v>
+      </c>
+      <c r="N22">
+        <v>148.173461</v>
+      </c>
+      <c r="O22">
+        <v>0.4028566641859401</v>
+      </c>
+      <c r="P22">
+        <v>0.4047308569616938</v>
+      </c>
+      <c r="Q22">
+        <v>4688.825201549295</v>
+      </c>
+      <c r="R22">
+        <v>42199.42681394366</v>
+      </c>
+      <c r="S22">
+        <v>0.1400969936207278</v>
+      </c>
+      <c r="T22">
+        <v>0.140792358042051</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>94.93248999999999</v>
+      </c>
+      <c r="H23">
+        <v>284.79747</v>
+      </c>
+      <c r="I23">
+        <v>0.347758908007205</v>
+      </c>
+      <c r="J23">
+        <v>0.3478666269702695</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>70.86573300000001</v>
+      </c>
+      <c r="N23">
+        <v>212.597199</v>
+      </c>
+      <c r="O23">
+        <v>0.5780130789036135</v>
+      </c>
+      <c r="P23">
+        <v>0.5807021443531359</v>
+      </c>
+      <c r="Q23">
+        <v>6727.460489365169</v>
+      </c>
+      <c r="R23">
+        <v>60547.14440428653</v>
+      </c>
+      <c r="S23">
+        <v>0.2010091971334031</v>
+      </c>
+      <c r="T23">
+        <v>0.2020068962305279</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>94.93248999999999</v>
+      </c>
+      <c r="H24">
+        <v>284.79747</v>
+      </c>
+      <c r="I24">
+        <v>0.347758908007205</v>
+      </c>
+      <c r="J24">
+        <v>0.3478666269702695</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.6137786666666667</v>
+      </c>
+      <c r="N24">
+        <v>1.841336</v>
+      </c>
+      <c r="O24">
+        <v>0.005006257352694774</v>
+      </c>
+      <c r="P24">
+        <v>0.005029547749002215</v>
+      </c>
+      <c r="Q24">
+        <v>58.26753713554666</v>
+      </c>
+      <c r="R24">
+        <v>524.40783421992</v>
+      </c>
+      <c r="S24">
+        <v>0.001740970590176176</v>
+      </c>
+      <c r="T24">
+        <v>0.001749611810631312</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>94.93248999999999</v>
+      </c>
+      <c r="H25">
+        <v>284.79747</v>
+      </c>
+      <c r="I25">
+        <v>0.347758908007205</v>
+      </c>
+      <c r="J25">
+        <v>0.3478666269702695</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.3859455</v>
+      </c>
+      <c r="N25">
+        <v>2.771891</v>
+      </c>
+      <c r="O25">
+        <v>0.01130440047304115</v>
+      </c>
+      <c r="P25">
+        <v>0.007571327633592945</v>
+      </c>
+      <c r="Q25">
+        <v>131.571257319295</v>
+      </c>
+      <c r="R25">
+        <v>789.42754391577</v>
+      </c>
+      <c r="S25">
+        <v>0.003931205964180924</v>
+      </c>
+      <c r="T25">
+        <v>0.00263381220558477</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.4890126666666667</v>
+      </c>
+      <c r="H26">
+        <v>1.467038</v>
+      </c>
+      <c r="I26">
+        <v>0.001791362587894739</v>
+      </c>
+      <c r="J26">
+        <v>0.001791917465759827</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.317263</v>
+      </c>
+      <c r="N26">
+        <v>0.634526</v>
+      </c>
+      <c r="O26">
+        <v>0.002587741009497455</v>
+      </c>
+      <c r="P26">
+        <v>0.001733186563985812</v>
+      </c>
+      <c r="Q26">
+        <v>0.1551456256646667</v>
+      </c>
+      <c r="R26">
+        <v>0.9308737539880001</v>
+      </c>
+      <c r="S26">
+        <v>4.635582431574705E-06</v>
+      </c>
+      <c r="T26">
+        <v>3.105727275426439E-06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G27">
+        <v>0.4890126666666667</v>
+      </c>
+      <c r="H27">
+        <v>1.467038</v>
+      </c>
+      <c r="I27">
+        <v>0.001791362587894739</v>
+      </c>
+      <c r="J27">
+        <v>0.001791917465759827</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.02842633333333333</v>
+      </c>
+      <c r="N27">
+        <v>0.08527899999999999</v>
+      </c>
+      <c r="O27">
+        <v>0.0002318580752130288</v>
+      </c>
+      <c r="P27">
+        <v>0.0002329367385893503</v>
+      </c>
+      <c r="Q27">
+        <v>0.01390083706688889</v>
+      </c>
+      <c r="R27">
+        <v>0.125107533602</v>
+      </c>
+      <c r="S27">
+        <v>4.153418816379042E-07</v>
+      </c>
+      <c r="T27">
+        <v>4.174034102953878E-07</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.4890126666666667</v>
+      </c>
+      <c r="H28">
+        <v>1.467038</v>
+      </c>
+      <c r="I28">
+        <v>0.001791362587894739</v>
+      </c>
+      <c r="J28">
+        <v>0.001791917465759827</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>49.39115366666666</v>
+      </c>
+      <c r="N28">
+        <v>148.173461</v>
+      </c>
+      <c r="O28">
+        <v>0.4028566641859401</v>
+      </c>
+      <c r="P28">
+        <v>0.4047308569616938</v>
+      </c>
+      <c r="Q28">
+        <v>24.15289976427978</v>
+      </c>
+      <c r="R28">
+        <v>217.376097878518</v>
+      </c>
+      <c r="S28">
+        <v>0.0007216623565067673</v>
+      </c>
+      <c r="T28">
+        <v>0.0007252442915216012</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G29">
+        <v>0.4890126666666667</v>
+      </c>
+      <c r="H29">
+        <v>1.467038</v>
+      </c>
+      <c r="I29">
+        <v>0.001791362587894739</v>
+      </c>
+      <c r="J29">
+        <v>0.001791917465759827</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>70.86573300000001</v>
+      </c>
+      <c r="N29">
+        <v>212.597199</v>
+      </c>
+      <c r="O29">
+        <v>0.5780130789036135</v>
+      </c>
+      <c r="P29">
+        <v>0.5807021443531359</v>
+      </c>
+      <c r="Q29">
+        <v>34.654241069618</v>
+      </c>
+      <c r="R29">
+        <v>311.888169626562</v>
+      </c>
+      <c r="S29">
+        <v>0.001035431004861783</v>
+      </c>
+      <c r="T29">
+        <v>0.001040570314870568</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G30">
+        <v>0.4890126666666667</v>
+      </c>
+      <c r="H30">
+        <v>1.467038</v>
+      </c>
+      <c r="I30">
+        <v>0.001791362587894739</v>
+      </c>
+      <c r="J30">
+        <v>0.001791917465759827</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.6137786666666667</v>
+      </c>
+      <c r="N30">
+        <v>1.841336</v>
+      </c>
+      <c r="O30">
+        <v>0.005006257352694774</v>
+      </c>
+      <c r="P30">
+        <v>0.005029547749002215</v>
+      </c>
+      <c r="Q30">
+        <v>0.3001455425297778</v>
+      </c>
+      <c r="R30">
+        <v>2.701309882768</v>
+      </c>
+      <c r="S30">
+        <v>8.968022126990372E-06</v>
+      </c>
+      <c r="T30">
+        <v>9.012534456310091E-06</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.4890126666666667</v>
+      </c>
+      <c r="H31">
+        <v>1.467038</v>
+      </c>
+      <c r="I31">
+        <v>0.001791362587894739</v>
+      </c>
+      <c r="J31">
+        <v>0.001791917465759827</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.3859455</v>
+      </c>
+      <c r="N31">
+        <v>2.771891</v>
+      </c>
+      <c r="O31">
+        <v>0.01130440047304115</v>
+      </c>
+      <c r="P31">
+        <v>0.007571327633592945</v>
+      </c>
+      <c r="Q31">
+        <v>0.6777449048096668</v>
+      </c>
+      <c r="R31">
+        <v>4.066469428858</v>
+      </c>
+      <c r="S31">
+        <v>2.025028008598551E-05</v>
+      </c>
+      <c r="T31">
+        <v>1.356719422562522E-05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.5</v>
+      </c>
+      <c r="G32">
+        <v>0.0282255</v>
+      </c>
+      <c r="H32">
+        <v>0.056451</v>
+      </c>
+      <c r="I32">
+        <v>0.0001033963088712554</v>
+      </c>
+      <c r="J32">
+        <v>6.895222404573569E-05</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.317263</v>
+      </c>
+      <c r="N32">
+        <v>0.634526</v>
+      </c>
+      <c r="O32">
+        <v>0.002587741009497455</v>
+      </c>
+      <c r="P32">
+        <v>0.001733186563985812</v>
+      </c>
+      <c r="Q32">
+        <v>0.008954906806500001</v>
+      </c>
+      <c r="R32">
+        <v>0.035819627226</v>
+      </c>
+      <c r="S32">
+        <v>2.675628686968132E-07</v>
+      </c>
+      <c r="T32">
+        <v>1.195070682730085E-07</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0.5</v>
+      </c>
+      <c r="G33">
+        <v>0.0282255</v>
+      </c>
+      <c r="H33">
+        <v>0.056451</v>
+      </c>
+      <c r="I33">
+        <v>0.0001033963088712554</v>
+      </c>
+      <c r="J33">
+        <v>6.895222404573569E-05</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.02842633333333333</v>
+      </c>
+      <c r="N33">
+        <v>0.08527899999999999</v>
+      </c>
+      <c r="O33">
+        <v>0.0002318580752130288</v>
+      </c>
+      <c r="P33">
+        <v>0.0002329367385893503</v>
+      </c>
+      <c r="Q33">
+        <v>0.0008023474715</v>
+      </c>
+      <c r="R33">
+        <v>0.004814084828999999</v>
+      </c>
+      <c r="S33">
+        <v>2.39732691590211E-08</v>
+      </c>
+      <c r="T33">
+        <v>1.606150618769584E-08</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0.5</v>
+      </c>
+      <c r="G34">
+        <v>0.0282255</v>
+      </c>
+      <c r="H34">
+        <v>0.056451</v>
+      </c>
+      <c r="I34">
+        <v>0.0001033963088712554</v>
+      </c>
+      <c r="J34">
+        <v>6.895222404573569E-05</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>49.39115366666666</v>
+      </c>
+      <c r="N34">
+        <v>148.173461</v>
+      </c>
+      <c r="O34">
+        <v>0.4028566641859401</v>
+      </c>
+      <c r="P34">
+        <v>0.4047308569616938</v>
+      </c>
+      <c r="Q34">
+        <v>1.3940900078185</v>
+      </c>
+      <c r="R34">
+        <v>8.364540046910999</v>
+      </c>
+      <c r="S34">
+        <v>4.165389208101309E-05</v>
+      </c>
+      <c r="T34">
+        <v>2.790709272744531E-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0.5</v>
+      </c>
+      <c r="G35">
+        <v>0.0282255</v>
+      </c>
+      <c r="H35">
+        <v>0.056451</v>
+      </c>
+      <c r="I35">
+        <v>0.0001033963088712554</v>
+      </c>
+      <c r="J35">
+        <v>6.895222404573569E-05</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>70.86573300000001</v>
+      </c>
+      <c r="N35">
+        <v>212.597199</v>
+      </c>
+      <c r="O35">
+        <v>0.5780130789036135</v>
+      </c>
+      <c r="P35">
+        <v>0.5807021443531359</v>
+      </c>
+      <c r="Q35">
+        <v>2.0002207467915</v>
+      </c>
+      <c r="R35">
+        <v>12.001324480749</v>
+      </c>
+      <c r="S35">
+        <v>5.976441883794336E-05</v>
+      </c>
+      <c r="T35">
+        <v>4.004070436127658E-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0.5</v>
+      </c>
+      <c r="G36">
+        <v>0.0282255</v>
+      </c>
+      <c r="H36">
+        <v>0.056451</v>
+      </c>
+      <c r="I36">
+        <v>0.0001033963088712554</v>
+      </c>
+      <c r="J36">
+        <v>6.895222404573569E-05</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.6137786666666667</v>
+      </c>
+      <c r="N36">
+        <v>1.841336</v>
+      </c>
+      <c r="O36">
+        <v>0.005006257352694774</v>
+      </c>
+      <c r="P36">
+        <v>0.005029547749002215</v>
+      </c>
+      <c r="Q36">
+        <v>0.017324209756</v>
+      </c>
+      <c r="R36">
+        <v>0.103945258536</v>
+      </c>
+      <c r="S36">
+        <v>5.176285315282223E-07</v>
+      </c>
+      <c r="T36">
+        <v>3.467985032379263E-07</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0.5</v>
+      </c>
+      <c r="G37">
+        <v>0.0282255</v>
+      </c>
+      <c r="H37">
+        <v>0.056451</v>
+      </c>
+      <c r="I37">
+        <v>0.0001033963088712554</v>
+      </c>
+      <c r="J37">
+        <v>6.895222404573569E-05</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.3859455</v>
+      </c>
+      <c r="N37">
+        <v>2.771891</v>
+      </c>
+      <c r="O37">
+        <v>0.01130440047304115</v>
+      </c>
+      <c r="P37">
+        <v>0.007571327633592945</v>
+      </c>
+      <c r="Q37">
+        <v>0.03911900471025</v>
+      </c>
+      <c r="R37">
+        <v>0.156476018841</v>
+      </c>
+      <c r="S37">
+        <v>1.168833282914929E-06</v>
+      </c>
+      <c r="T37">
+        <v>5.220598793151705E-07</v>
       </c>
     </row>
   </sheetData>
